--- a/GameData/Excel/playable_character.xlsx
+++ b/GameData/Excel/playable_character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9CED89-120F-46F1-AAB9-6778E93D7AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FD9206-3AEE-4892-B857-98C0F8D2AADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20268" yWindow="6168" windowWidth="34560" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="915" yWindow="2010" windowWidth="21600" windowHeight="11430" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="playable_character" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>int</t>
   </si>
@@ -71,6 +71,13 @@
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_reward_id</t>
   </si>
 </sst>
 </file>
@@ -503,21 +510,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="3"/>
+    <col min="3" max="4" width="25" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -527,8 +534,11 @@
       <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -538,8 +548,11 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -547,8 +560,11 @@
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1000001</v>
       </c>
@@ -558,81 +574,99 @@
       <c r="C4" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1">
+        <v>1000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameData/Excel/playable_character.xlsx
+++ b/GameData/Excel/playable_character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FD9206-3AEE-4892-B857-98C0F8D2AADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B47EAA1-0F11-4855-B108-DDB40BE625D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="2010" windowWidth="21600" windowHeight="11430" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="10944" yWindow="3372" windowWidth="20328" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="playable_character" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>int</t>
   </si>
@@ -78,6 +78,22 @@
   </si>
   <si>
     <t>first_reward_id</t>
+  </si>
+  <si>
+    <t>slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slot_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근원 슬롯 초기값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근원 슬롯 최대값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -510,21 +526,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="12" style="3" customWidth="1"/>
     <col min="3" max="4" width="25" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="3"/>
+    <col min="5" max="6" width="12" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -537,8 +554,14 @@
       <c r="D1" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -551,8 +574,14 @@
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -563,8 +592,14 @@
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000001</v>
       </c>
@@ -577,96 +612,132 @@
       <c r="D4" s="1">
         <v>1000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameData/Excel/playable_character.xlsx
+++ b/GameData/Excel/playable_character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B47EAA1-0F11-4855-B108-DDB40BE625D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B05862-6465-4033-8B4E-51A7C361B81E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10944" yWindow="3372" windowWidth="20328" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="10950" yWindow="3375" windowWidth="20325" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="playable_character" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -230,9 +219,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -270,7 +259,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -376,7 +365,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -518,7 +507,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,18 +519,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12" style="3" customWidth="1"/>
     <col min="3" max="4" width="25" style="3" customWidth="1"/>
     <col min="5" max="6" width="12" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.69921875" style="3"/>
+    <col min="7" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -561,7 +550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -581,7 +570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -599,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1000001</v>
       </c>
@@ -607,19 +596,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1">
         <v>1000001</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -627,7 +616,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -635,7 +624,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -643,7 +632,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -651,7 +640,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -659,7 +648,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -667,7 +656,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -675,7 +664,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -683,7 +672,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -691,7 +680,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -699,7 +688,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -707,7 +696,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -715,7 +704,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -723,7 +712,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -731,7 +720,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>

--- a/GameData/Excel/playable_character.xlsx
+++ b/GameData/Excel/playable_character.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B05862-6465-4033-8B4E-51A7C361B81E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EBF698-324D-4A46-90A1-A5B55AC7481C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10950" yWindow="3375" windowWidth="20325" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -519,7 +519,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -596,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1">
         <v>1000001</v>

--- a/GameData/Excel/playable_character.xlsx
+++ b/GameData/Excel/playable_character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EBF698-324D-4A46-90A1-A5B55AC7481C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96F783F-741B-45E0-A85C-A224C1A0FD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10950" yWindow="3375" windowWidth="20325" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="playable_character" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -219,9 +230,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -259,7 +270,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -365,7 +376,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -507,7 +518,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -519,7 +530,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
